--- a/biology/Botanique/Bois_de_Pouez/Bois_de_Pouez.xlsx
+++ b/biology/Botanique/Bois_de_Pouez/Bois_de_Pouez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt de Pouez ou bois de Pouez ou bois de Pouez et Ferchaud se trouve sur les territoires des communes de Crevin, Chanteloup, Orgères et Laillé au sud du département d'Ille-et-Vilaine en France. 
-Elle s'étend sur 313 hectares[1]. 
+Elle s'étend sur 313 hectares. 
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le ruisseau de l'Oiselière longe et traverse la forêt au niveau du bois de Ferchaud près de Crévin. Un autre ruisseau, l'Hodeillé, longe ce même bois de Ferchaud où se trouvent les restes de fortifications antiques[2]. Un chemin de randonnée de 10,3 km traverse la forêt[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ruisseau de l'Oiselière longe et traverse la forêt au niveau du bois de Ferchaud près de Crévin. Un autre ruisseau, l'Hodeillé, longe ce même bois de Ferchaud où se trouvent les restes de fortifications antiques. Un chemin de randonnée de 10,3 km traverse la forêt.
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Durant la Révolution Française, des chouans s'y seraient réfugiés[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant la Révolution Française, des chouans s'y seraient réfugiés.
 La forêt de Pouez a subi un très important incendie en septembre 1959. Le feu se déclara le jeudi soir le 3 septembre. Les pompiers pensaient l'avoir éteint, mais il reprit le lendemain matin. L'incendie fut définitivement circonscrit le dimanche. Le journal Ouest-France du 5 septembre 1959 rend compte de l'incendie et de l'intervention des pompiers de toute la région.
-D'autres incendies ont eu lieu dont celui d'avril 1929 qui détruisit deux hectares et celui du 2 avril 1937 qui détruisit 25 hectares. On peut en lire le compte rendu dans le journal L'Ouest-Éclair du 3 avril 1937[5].
+D'autres incendies ont eu lieu dont celui d'avril 1929 qui détruisit deux hectares et celui du 2 avril 1937 qui détruisit 25 hectares. On peut en lire le compte rendu dans le journal L'Ouest-Éclair du 3 avril 1937.
 </t>
         </is>
       </c>
